--- a/scripts/models/max/Max_DatingApp_Journey_Infloww.xlsx
+++ b/scripts/models/max/Max_DatingApp_Journey_Infloww.xlsx
@@ -801,7 +801,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>I'm hard as fuck because of you and I can't do shit about it</t>
+          <t>I'm hard as fuck because of you and I can't do anything about it</t>
         </is>
       </c>
       <c r="C18" s="5" t="n"/>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B35" s="8" t="inlineStr">
         <is>
-          <t>nice to meet you man 😏 so be honest, what caught your eye</t>
+          <t>glad you're here man 😏 so be honest, what caught your eye</t>
         </is>
       </c>
       <c r="C35" s="8" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>I'm 20. young but I know what I'm doing 😏</t>
+          <t>I'm 20 but trust me I know what I'm doing 😏</t>
         </is>
       </c>
       <c r="C2" s="9" t="n"/>
